--- a/biology/Médecine/Felice_Accoramboni/Felice_Accoramboni.xlsx
+++ b/biology/Médecine/Felice_Accoramboni/Felice_Accoramboni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Felice Accoramboni est un médecin, poète et philosophe italien de la Renaissance.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s’appliqua des sa jeunesse à la médecine, et fit dans cette science de rapides progrès. L’étude de la philosophie ancienne, celle de l’histoire naturelle et la culture des lettres remplissaient les loisirs que lui laissait la pratique de son art. Allié du pape Sixte-Quint, par son mariage avec une de ses parentes, il eut beaucoup à se louer de la générosité de ce pontife, et en témoigna sa reconnaissance en lui dédiant le recueil de ses ouvrages, imprimé à Rome, en 1590, in-fol. Ce volume contient :
 Commentarius obscuriorum locorum et sententiarum in omnibus aristotelicis scriptis ; et controversiarum inter platonicos, Galenum et Aristotelem, Examinatio ;
